--- a/Modelization/ShopManagement/Dictionnaire de donnee.xlsx
+++ b/Modelization/ShopManagement/Dictionnaire de donnee.xlsx
@@ -4,19 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="774" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Article" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="ArticleCategory" sheetId="2" r:id="rId2"/>
+    <sheet name="Order" sheetId="3" r:id="rId3"/>
+    <sheet name="Delivery" sheetId="4" r:id="rId4"/>
+    <sheet name="OrderLine" sheetId="5" r:id="rId5"/>
+    <sheet name="UserApp" sheetId="6" r:id="rId6"/>
+    <sheet name="Provider" sheetId="7" r:id="rId7"/>
+    <sheet name="Customer" sheetId="8" r:id="rId8"/>
+    <sheet name="CustomerDelivery" sheetId="9" r:id="rId9"/>
+    <sheet name="CustomerOrder" sheetId="10" r:id="rId10"/>
+    <sheet name="CustomerOrderLine" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="93">
   <si>
     <t>Anglais</t>
   </si>
@@ -75,12 +83,6 @@
     <t>Relations</t>
   </si>
   <si>
-    <t>CategoryArticle</t>
-  </si>
-  <si>
-    <t>ArticleCategorie</t>
-  </si>
-  <si>
     <t>Article</t>
   </si>
   <si>
@@ -100,6 +102,207 @@
   </si>
   <si>
     <t>خط الطلب</t>
+  </si>
+  <si>
+    <t>ArticleCategory</t>
+  </si>
+  <si>
+    <t>CategorieArticle</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>الوصف</t>
+  </si>
+  <si>
+    <t>البضاعة</t>
+  </si>
+  <si>
+    <t>OneroMany</t>
+  </si>
+  <si>
+    <t>ArticelCategory</t>
+  </si>
+  <si>
+    <t>نوع البضاعة</t>
+  </si>
+  <si>
+    <t>Date Commande</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>تاريخ الطلب</t>
+  </si>
+  <si>
+    <t>DeliveryDateExpected</t>
+  </si>
+  <si>
+    <t>DateLivraisonAttendue</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Fournisseur</t>
+  </si>
+  <si>
+    <t>الموزع</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Livraison</t>
+  </si>
+  <si>
+    <t>الطلب</t>
+  </si>
+  <si>
+    <t>OrderLine</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Commande</t>
+  </si>
+  <si>
+    <t>DeliveryDate</t>
+  </si>
+  <si>
+    <t>DateLivraison</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>Nom d'utilisateur</t>
+  </si>
+  <si>
+    <t>Mot de passe</t>
+  </si>
+  <si>
+    <t>الاسم الشخصي</t>
+  </si>
+  <si>
+    <t>الاسم العائلي</t>
+  </si>
+  <si>
+    <t>البريد الالكتروني</t>
+  </si>
+  <si>
+    <t>اسم المستعمل</t>
+  </si>
+  <si>
+    <t>كلمة المرور</t>
+  </si>
+  <si>
+    <t>الهاتف</t>
+  </si>
+  <si>
+    <t>المستعمل</t>
+  </si>
+  <si>
+    <t>Utilisateur</t>
+  </si>
+  <si>
+    <t>UserApp</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Adresse</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>المزود</t>
+  </si>
+  <si>
+    <t>العنوان</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>الزبون</t>
+  </si>
+  <si>
+    <t>CustomerOrder</t>
+  </si>
+  <si>
+    <t>Commande Client</t>
+  </si>
+  <si>
+    <t>طلب الزبون</t>
+  </si>
+  <si>
+    <t>CustomerDelivery</t>
+  </si>
+  <si>
+    <t>Livarison Client</t>
+  </si>
+  <si>
+    <t>Date Livraison</t>
+  </si>
+  <si>
+    <t>Commande client</t>
+  </si>
+  <si>
+    <t>تاريخ التوصل المنتظر</t>
+  </si>
+  <si>
+    <t>تاريخ التوصل</t>
+  </si>
+  <si>
+    <t>التوصيل</t>
+  </si>
+  <si>
+    <t>Livraison Client</t>
+  </si>
+  <si>
+    <t>OneToOne</t>
+  </si>
+  <si>
+    <t>توصيل الزبون</t>
+  </si>
+  <si>
+    <t>CustomerOrderLine</t>
+  </si>
+  <si>
+    <t>LigneCommandeClient</t>
+  </si>
+  <si>
+    <t>خط طلب الزبون</t>
+  </si>
+  <si>
+    <t>Ligne Commande Client</t>
   </si>
 </sst>
 </file>
@@ -123,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +339,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -158,17 +367,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -222,11 +420,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -234,49 +454,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -574,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -586,146 +885,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -739,26 +1038,1247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="79.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Modelization/ShopManagement/Dictionnaire de donnee.xlsx
+++ b/Modelization/ShopManagement/Dictionnaire de donnee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="774" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="976" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Article" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,17 @@
     <sheet name="CustomerDelivery" sheetId="9" r:id="rId9"/>
     <sheet name="CustomerOrder" sheetId="10" r:id="rId10"/>
     <sheet name="CustomerOrderLine" sheetId="11" r:id="rId11"/>
+    <sheet name="Configuration" sheetId="12" r:id="rId12"/>
+    <sheet name="Cost" sheetId="13" r:id="rId13"/>
+    <sheet name="CostCategory" sheetId="14" r:id="rId14"/>
+    <sheet name="Notification" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="117">
   <si>
     <t>Anglais</t>
   </si>
@@ -303,6 +307,78 @@
   </si>
   <si>
     <t>Ligne Commande Client</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>الاعدادات</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Type Value</t>
+  </si>
+  <si>
+    <t>type valeur</t>
+  </si>
+  <si>
+    <t>القيمة</t>
+  </si>
+  <si>
+    <t>نوع القيمة</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Depense</t>
+  </si>
+  <si>
+    <t>النفقة</t>
+  </si>
+  <si>
+    <t>CosteDate</t>
+  </si>
+  <si>
+    <t>DateDepense</t>
+  </si>
+  <si>
+    <t>تاريخ النفقة</t>
+  </si>
+  <si>
+    <t>CostCategory</t>
+  </si>
+  <si>
+    <t>CategorieDepense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> نوع النفقة</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>اشعار</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Creation date</t>
+  </si>
+  <si>
+    <t>date creation</t>
+  </si>
+  <si>
+    <t>تاريخ الانشاء</t>
   </si>
 </sst>
 </file>
@@ -454,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,31 +556,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -535,6 +590,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,38 +638,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,11 +973,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -988,11 +1076,11 @@
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
@@ -1004,11 +1092,11 @@
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
@@ -1020,11 +1108,11 @@
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1054,11 +1142,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -1075,63 +1163,63 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1148,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1160,11 +1248,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -1181,31 +1269,31 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -1217,38 +1305,415 @@
       <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="65.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1270,11 +1735,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1328,11 +1793,11 @@
       <c r="C5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -1351,12 +1816,12 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1382,11 +1847,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1406,13 +1871,13 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1451,43 +1916,43 @@
       <c r="C6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
@@ -1499,11 +1964,11 @@
       <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1533,11 +1998,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1557,24 +2022,24 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1588,14 +2053,14 @@
       <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1604,29 +2069,29 @@
       <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1655,11 +2120,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -1676,31 +2141,31 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
@@ -1712,14 +2177,14 @@
       <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1728,11 +2193,11 @@
       <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1761,11 +2226,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -1782,102 +2247,102 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="32"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1893,7 +2358,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1904,11 +2369,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -1925,96 +2390,96 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="21" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2031,7 +2496,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="D9" sqref="D9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2042,11 +2507,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -2063,102 +2528,102 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2185,11 +2650,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
@@ -2206,72 +2671,72 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
